--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:15:24+00:00</t>
+    <t>2022-07-20T08:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:05:17+00:00</t>
+    <t>2022-07-20T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:58:56+00:00</t>
+    <t>2022-07-20T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T10:32:08+00:00</t>
+    <t>2022-07-22T13:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -565,13 +565,7 @@
 ・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。&lt;br/&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Type of acquired data in the instance.</t>
-  </si>
-  <si>
-    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+    <t>https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
     <t>.code</t>
@@ -586,7 +580,7 @@
     <t>ImagingStudy.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Device|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|Group)
 </t>
   </si>
   <si>
@@ -619,7 +613,7 @@
     <t>ImagingStudy.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -722,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -854,7 +848,7 @@
     <t>ImagingStudy.procedureReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -902,6 +896,9 @@
 エラーコードなどを記載</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>The performed procedure type.</t>
   </si>
   <si>
@@ -914,7 +911,7 @@
     <t>ImagingStudy.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -987,7 +984,7 @@
     <t>ImagingStudy.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Media|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|Media|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common|DocumentReference)
 </t>
   </si>
   <si>
@@ -1208,6 +1205,12 @@
 （参照先）&lt;br/&gt;
 ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json&lt;br/&gt;
 http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+  </si>
+  <si>
+    <t>Type of acquired data in the instance.</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
     <t>(0008,0060)</t>
@@ -1443,7 +1446,7 @@
     <t>ImagingStudy.series.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -3394,13 +3397,11 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -3436,13 +3437,13 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3450,7 +3451,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3473,16 +3474,16 @@
         <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3532,7 +3533,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>87</v>
@@ -3547,16 +3548,16 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3564,7 +3565,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3587,16 +3588,16 @@
         <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3646,7 +3647,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3661,16 +3662,16 @@
         <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3678,11 +3679,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3701,16 +3702,16 @@
         <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3724,7 +3725,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3760,7 +3761,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3775,16 +3776,16 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3792,7 +3793,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3815,19 +3816,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3876,7 +3877,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3891,16 +3892,16 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3908,11 +3909,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3931,16 +3932,16 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3990,7 +3991,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4008,13 +4009,13 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4022,11 +4023,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4045,16 +4046,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4104,7 +4105,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4122,13 +4123,13 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4136,7 +4137,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4159,19 +4160,19 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4220,7 +4221,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4238,7 +4239,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4252,11 +4253,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4275,16 +4276,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4334,7 +4335,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4352,10 +4353,10 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4366,11 +4367,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4389,16 +4390,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4448,7 +4449,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4466,10 +4467,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4480,7 +4481,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4503,16 +4504,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4562,7 +4563,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4577,13 +4578,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4594,11 +4595,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4617,16 +4618,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4652,14 +4653,14 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4691,13 +4692,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4708,7 +4709,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4731,19 +4732,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4792,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4807,24 +4808,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4847,16 +4848,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4882,14 +4883,14 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4921,16 +4922,16 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4938,7 +4939,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4961,16 +4962,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5020,7 +5021,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5035,24 +5036,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5075,16 +5076,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5134,7 +5135,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5149,10 +5150,10 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5166,11 +5167,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5192,13 +5193,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5248,7 +5249,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5266,10 +5267,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5280,7 +5281,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5303,16 +5304,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5362,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5380,7 +5381,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5394,7 +5395,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5420,10 +5421,10 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5474,7 +5475,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5492,7 +5493,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5507,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5535,7 +5536,7 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>136</v>
@@ -5588,7 +5589,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5606,7 +5607,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5620,11 +5621,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5646,10 +5647,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5704,7 +5705,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5736,11 +5737,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5759,19 +5760,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5784,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>77</v>
@@ -5820,7 +5821,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -5838,10 +5839,10 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5852,11 +5853,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5875,16 +5876,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5898,7 +5899,7 @@
         <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>77</v>
@@ -5934,7 +5935,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5952,10 +5953,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5966,11 +5967,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5992,13 +5993,13 @@
         <v>168</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6024,13 +6025,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6048,7 +6049,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6066,10 +6067,10 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6080,11 +6081,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6106,13 +6107,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6126,7 +6127,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6162,7 +6163,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6180,10 +6181,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6194,11 +6195,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6217,16 +6218,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6276,7 +6277,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6294,10 +6295,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6309,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6331,19 +6332,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6392,7 +6393,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6410,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6424,11 +6425,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6450,13 +6451,13 @@
         <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6482,13 +6483,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6506,7 +6507,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6524,10 +6525,10 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6538,7 +6539,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6564,13 +6565,13 @@
         <v>168</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6596,13 +6597,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6620,7 +6621,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6638,10 +6639,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6652,7 +6653,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6675,16 +6676,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6734,7 +6735,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6752,10 +6753,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6766,7 +6767,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6789,16 +6790,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6848,7 +6849,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6866,10 +6867,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6880,11 +6881,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6903,19 +6904,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6964,7 +6965,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6979,13 +6980,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6996,7 +6997,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7022,10 +7023,10 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7076,7 +7077,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7094,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7108,7 +7109,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7137,7 +7138,7 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>136</v>
@@ -7190,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7208,7 +7209,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7222,11 +7223,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7248,10 +7249,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>136</v>
@@ -7306,7 +7307,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7338,7 +7339,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7361,17 +7362,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7396,13 +7397,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7420,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7438,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7453,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7475,16 +7476,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7534,7 +7535,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>87</v>
@@ -7552,21 +7553,21 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7589,16 +7590,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7648,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7666,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7681,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7706,10 +7707,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7760,7 +7761,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7778,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7793,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7821,7 +7822,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7874,7 +7875,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7892,7 +7893,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7906,11 +7907,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7932,10 +7933,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7990,7 +7991,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8022,11 +8023,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8045,19 +8046,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8070,7 +8071,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -8106,7 +8107,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8124,10 +8125,10 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8138,11 +8139,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8164,13 +8165,13 @@
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8196,13 +8197,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8220,7 +8221,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8238,10 +8239,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8252,11 +8253,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8275,16 +8276,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8334,7 +8335,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8352,10 +8353,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8367,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8392,13 +8393,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8448,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8466,10 +8467,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T13:13:55+00:00</t>
+    <t>2022-07-22T14:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -565,7 +565,13 @@
 ・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。&lt;br/&gt;</t>
   </si>
   <si>
-    <t>https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Type of acquired data in the instance.</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
     <t>.code</t>
@@ -894,9 +900,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。
 エラーコードなどを記載</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The performed procedure type.</t>
@@ -1205,12 +1208,6 @@
 （参照先）&lt;br/&gt;
 ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json&lt;br/&gt;
 http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
-  </si>
-  <si>
-    <t>Type of acquired data in the instance.</t>
-  </si>
-  <si>
-    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
     <t>(0008,0060)</t>
@@ -3397,11 +3394,13 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -3437,13 +3436,13 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3450,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3474,16 +3473,16 @@
         <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3533,7 +3532,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>87</v>
@@ -3548,16 +3547,16 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3565,7 +3564,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3588,16 +3587,16 @@
         <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3647,7 +3646,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3662,16 +3661,16 @@
         <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3679,11 +3678,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3702,16 +3701,16 @@
         <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3725,7 +3724,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3761,7 +3760,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3776,16 +3775,16 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3793,7 +3792,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3816,19 +3815,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3877,7 +3876,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3892,16 +3891,16 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3909,11 +3908,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3932,16 +3931,16 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3991,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4009,13 +4008,13 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4023,11 +4022,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4046,16 +4045,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4105,7 +4104,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4123,13 +4122,13 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4137,7 +4136,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4160,19 +4159,19 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4221,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4239,7 +4238,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4253,11 +4252,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4276,16 +4275,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4335,7 +4334,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4353,10 +4352,10 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4367,11 +4366,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4390,16 +4389,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4449,7 +4448,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4467,10 +4466,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4481,7 +4480,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4504,16 +4503,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4563,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4578,13 +4577,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4595,11 +4594,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4618,16 +4617,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4653,13 +4652,13 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4677,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4692,13 +4691,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4708,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4732,19 +4731,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4793,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4808,24 +4807,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4848,16 +4847,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4883,13 +4882,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4907,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4922,16 +4921,16 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4939,7 +4938,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4962,16 +4961,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5021,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5036,24 +5035,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5076,16 +5075,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5135,7 +5134,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5150,10 +5149,10 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5167,11 +5166,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5193,13 +5192,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5249,7 +5248,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5267,10 +5266,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5281,7 +5280,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5304,16 +5303,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5363,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5380,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5394,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5421,10 +5420,10 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5475,7 +5474,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5493,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5506,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5536,7 +5535,7 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>136</v>
@@ -5589,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5607,7 +5606,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5621,11 +5620,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5647,10 +5646,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5705,7 +5704,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5737,11 +5736,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5760,19 +5759,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5785,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>77</v>
@@ -5821,7 +5820,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -5839,10 +5838,10 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5853,11 +5852,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5876,16 +5875,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5899,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>77</v>
@@ -5935,7 +5934,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5953,10 +5952,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5967,11 +5966,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5993,13 +5992,13 @@
         <v>168</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6025,13 +6024,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6049,7 +6048,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6067,10 +6066,10 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6081,11 +6080,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6107,13 +6106,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6127,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6163,7 +6162,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6181,10 +6180,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6195,11 +6194,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6218,16 +6217,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6277,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6295,10 +6294,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6309,7 +6308,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6332,19 +6331,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6393,7 +6392,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6411,7 +6410,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6425,11 +6424,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6451,13 +6450,13 @@
         <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6483,14 +6482,14 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6525,10 +6524,10 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6539,7 +6538,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6565,13 +6564,13 @@
         <v>168</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6597,14 +6596,14 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6639,10 +6638,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6652,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6676,16 +6675,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6735,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6753,10 +6752,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6767,7 +6766,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6790,16 +6789,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6849,7 +6848,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6867,10 +6866,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6881,11 +6880,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6904,19 +6903,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6965,7 +6964,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6980,13 +6979,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6997,7 +6996,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7023,10 +7022,10 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7077,7 +7076,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7095,7 +7094,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7109,7 +7108,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7138,7 +7137,7 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>136</v>
@@ -7191,7 +7190,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7209,7 +7208,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7223,11 +7222,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7249,10 +7248,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>136</v>
@@ -7307,7 +7306,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7339,7 +7338,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7362,17 +7361,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7397,14 +7396,14 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7439,7 +7438,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7452,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7476,16 +7475,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7535,7 +7534,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>87</v>
@@ -7553,21 +7552,21 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7590,16 +7589,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7649,7 +7648,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7667,7 +7666,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7681,7 +7680,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7707,10 +7706,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7761,7 +7760,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7779,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7792,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7822,7 +7821,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7875,7 +7874,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7893,7 +7892,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7907,11 +7906,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7933,10 +7932,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7991,7 +7990,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8023,11 +8022,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8046,19 +8045,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8071,7 +8070,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -8107,7 +8106,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8125,10 +8124,10 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8139,11 +8138,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8165,13 +8164,13 @@
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8197,14 +8196,14 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8239,10 +8238,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8253,11 +8252,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8276,16 +8275,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8335,7 +8334,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8353,10 +8352,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8366,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8393,13 +8392,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8449,7 +8448,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8467,10 +8466,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T14:30:02+00:00</t>
+    <t>2022-07-22T14:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
